--- a/data/trans_dic/RUIDO_1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/RUIDO_1_R-Edad-trans_dic.xlsx
@@ -564,10 +564,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.738741953593941</v>
+        <v>0.7387419535939411</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.7335719498827116</v>
+        <v>0.7335719498827115</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.7361769476725841</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.61320360255467</v>
+        <v>0.6177381287604329</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.6418328825664097</v>
+        <v>0.6403836166277291</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.6677729964069828</v>
+        <v>0.669254389000434</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8240695323305632</v>
+        <v>0.8300721415702524</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8180294210195216</v>
+        <v>0.8184121531836541</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7993642043999639</v>
+        <v>0.802612941626731</v>
       </c>
     </row>
     <row r="7">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.693379792141553</v>
+        <v>0.6933797921415529</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.7738164366962483</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.7342978329529856</v>
+        <v>0.7342978329529855</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.6064722186954962</v>
+        <v>0.6011333427539627</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.7145078291981651</v>
+        <v>0.7094883857367358</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6710133714812345</v>
+        <v>0.6793546636247938</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7750364156795775</v>
+        <v>0.7748471225430629</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8271184351392481</v>
+        <v>0.8277037148297325</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7773345179992264</v>
+        <v>0.779563703235475</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.677180955627915</v>
+        <v>0.6790993356679141</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7033170632173654</v>
+        <v>0.6968230149401292</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7046870477505941</v>
+        <v>0.7036517287325785</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7843161392858258</v>
+        <v>0.7784669778760093</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7879181853310609</v>
+        <v>0.7843645964337879</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7738018386935643</v>
+        <v>0.7706563817434958</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.739566678571792</v>
+        <v>0.7395666785717919</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.7822473256639703</v>
+        <v>0.7822473256639705</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.7609891306264842</v>
+        <v>0.7609891306264843</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.6878755011427556</v>
+        <v>0.6947147248974503</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7455745859261954</v>
+        <v>0.7436200380880598</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7294994461827238</v>
+        <v>0.7330528150117275</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7839311570208907</v>
+        <v>0.7879124736549484</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8134073654373971</v>
+        <v>0.8127508773363656</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7904453903570744</v>
+        <v>0.7911013032077077</v>
       </c>
     </row>
     <row r="16">
@@ -790,7 +790,7 @@
         <v>0.7643509239227887</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.7843658685792575</v>
+        <v>0.7843658685792577</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7583575778159578</v>
+        <v>0.7595926751904889</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.7290821057366375</v>
+        <v>0.728751402177921</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7548844428238773</v>
+        <v>0.7555265261447878</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.841607519539463</v>
+        <v>0.8395416025822111</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7993072702045261</v>
+        <v>0.7998192757585686</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8123473526742696</v>
+        <v>0.8131201264907527</v>
       </c>
     </row>
     <row r="19">
@@ -842,7 +842,7 @@
         <v>0.7968499302911644</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.83272803629277</v>
+        <v>0.8327280362927701</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.8150508304618692</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.7496198040508344</v>
+        <v>0.7484018598017663</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.795252863631478</v>
+        <v>0.7946800792658869</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.787257494281827</v>
+        <v>0.7845712451217487</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.8397682566740391</v>
+        <v>0.844213346780366</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.8646973990249214</v>
+        <v>0.8668029951295445</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.8431612335622537</v>
+        <v>0.8417768432825303</v>
       </c>
     </row>
     <row r="22">
@@ -894,13 +894,13 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.8072513830392706</v>
+        <v>0.8072513830392709</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>0.8664142483589004</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.8433399517128658</v>
+        <v>0.8433399517128657</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.7533454218164899</v>
+        <v>0.7545454334794237</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.8302884179107498</v>
+        <v>0.8319733224605063</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.8173699120383996</v>
+        <v>0.8168592346914396</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.8520762632143414</v>
+        <v>0.8551406586749644</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.8923051732172114</v>
+        <v>0.894092036954364</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.8705634059137047</v>
+        <v>0.8687700192703877</v>
       </c>
     </row>
     <row r="25">
@@ -949,10 +949,10 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.7580873081089151</v>
+        <v>0.758087308108915</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>0.7849595747119833</v>
+        <v>0.7849595747119832</v>
       </c>
       <c r="E25" s="5" t="n">
         <v>0.7717269775152205</v>
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.7354709153955055</v>
+        <v>0.7341779410043384</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.7682340038576638</v>
+        <v>0.767270846826256</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.7554029725988942</v>
+        <v>0.7548995677315962</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.7800727758517279</v>
+        <v>0.7805492456586409</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.8019436879044435</v>
+        <v>0.8022984401502752</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.7846319552925275</v>
+        <v>0.7840063236589389</v>
       </c>
     </row>
     <row r="28">
@@ -1134,13 +1134,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>112841</v>
+        <v>113675</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>116296</v>
+        <v>116033</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>243879</v>
+        <v>244420</v>
       </c>
     </row>
     <row r="7">
@@ -1151,13 +1151,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>151644</v>
+        <v>152748</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>148221</v>
+        <v>148291</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>291937</v>
+        <v>293124</v>
       </c>
     </row>
     <row r="8">
@@ -1206,13 +1206,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>131094</v>
+        <v>129940</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>159917</v>
+        <v>158793</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>295228</v>
+        <v>298898</v>
       </c>
     </row>
     <row r="11">
@@ -1223,13 +1223,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>167531</v>
+        <v>167490</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>185121</v>
+        <v>185252</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>342006</v>
+        <v>342987</v>
       </c>
     </row>
     <row r="12">
@@ -1278,13 +1278,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>228803</v>
+        <v>229451</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>206717</v>
+        <v>204808</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>445215</v>
+        <v>444561</v>
       </c>
     </row>
     <row r="15">
@@ -1295,13 +1295,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>265001</v>
+        <v>263025</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>231583</v>
+        <v>230538</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>488881</v>
+        <v>486894</v>
       </c>
     </row>
     <row r="16">
@@ -1350,13 +1350,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>241647</v>
+        <v>244049</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>263939</v>
+        <v>263247</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>514517</v>
+        <v>517024</v>
       </c>
     </row>
     <row r="19">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>275390</v>
+        <v>276789</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>287953</v>
+        <v>287720</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>557503</v>
+        <v>557965</v>
       </c>
     </row>
     <row r="20">
@@ -1422,13 +1422,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>252671</v>
+        <v>253083</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>237858</v>
+        <v>237750</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>497790</v>
+        <v>498213</v>
       </c>
     </row>
     <row r="23">
@@ -1439,13 +1439,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>280408</v>
+        <v>279720</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>260768</v>
+        <v>260935</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>535682</v>
+        <v>536192</v>
       </c>
     </row>
     <row r="24">
@@ -1494,13 +1494,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>160964</v>
+        <v>160702</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>175821</v>
+        <v>175694</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>343099</v>
+        <v>341928</v>
       </c>
     </row>
     <row r="27">
@@ -1511,13 +1511,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>180321</v>
+        <v>181275</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>191174</v>
+        <v>191640</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>367462</v>
+        <v>366859</v>
       </c>
     </row>
     <row r="28">
@@ -1566,13 +1566,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>123413</v>
+        <v>123610</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>212735</v>
+        <v>213167</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>343326</v>
+        <v>343112</v>
       </c>
     </row>
     <row r="31">
@@ -1583,13 +1583,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>139587</v>
+        <v>140089</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>228625</v>
+        <v>229082</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>365670</v>
+        <v>364916</v>
       </c>
     </row>
     <row r="32">
@@ -1638,13 +1638,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>1324638</v>
+        <v>1322310</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>1426212</v>
+        <v>1424424</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>2762928</v>
+        <v>2761087</v>
       </c>
     </row>
     <row r="35">
@@ -1655,13 +1655,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>1404970</v>
+        <v>1405828</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>1488793</v>
+        <v>1489452</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>2869835</v>
+        <v>2867546</v>
       </c>
     </row>
     <row r="36">
